--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,9 +1112,67 @@
         <v>28.00%</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>pumas unam</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>66.67%</v>
+      </c>
+      <c r="G26" t="str">
+        <v>66.67%</v>
+      </c>
+      <c r="H26" t="str">
+        <v>66.67%</v>
+      </c>
+      <c r="I26" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>pachuca</v>
+      </c>
+      <c r="B27" t="str">
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>33.33%</v>
+      </c>
+      <c r="G27" t="str">
+        <v>33.33%</v>
+      </c>
+      <c r="H27" t="str">
+        <v>33.33%</v>
+      </c>
+      <c r="I27" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,46 +398,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>teamDate</v>
+      </c>
+      <c r="B1" t="str">
         <v>teamName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>matchesPlayed</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>victories</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>trials</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>desiredSuccesses</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>probabilityLastPerformance</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>historyProbability</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>weightedProbability</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>drawProbability</v>
       </c>
+      <c r="K1" t="str">
+        <v>losseProbability</v>
+      </c>
+      <c r="L1" t="str">
+        <v>ProbabilityToWinTakenInConsiderationAllPrevData</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="B2" t="str">
         <v>America</v>
-      </c>
-      <c r="B2" t="str">
-        <v>5</v>
       </c>
       <c r="C2" t="str">
         <v>5</v>
@@ -445,54 +452,66 @@
         <v>5</v>
       </c>
       <c r="E2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
         <v>2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G2" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H2" t="str">
         <v>NaN%</v>
       </c>
       <c r="I2" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J2" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K2" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L2" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="B3" t="str">
         <v>Pumas</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>5</v>
       </c>
-      <c r="C3" t="str">
-        <v>3</v>
-      </c>
       <c r="D3" t="str">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <v>1</v>
-      </c>
       <c r="F3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
         <v>48.00%</v>
       </c>
-      <c r="G3" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H3" t="str">
         <v>NaN%</v>
       </c>
       <c r="I3" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J3" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K3" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L3" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="4">
-      <c r="F4" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="G4" t="str">
         <v>NaN%</v>
       </c>
@@ -502,14 +521,20 @@
       <c r="I4" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J4" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K4" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L4" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="B5" t="str">
         <v>Cruz azul</v>
       </c>
-      <c r="B5" t="str">
-        <v>3</v>
-      </c>
       <c r="C5" t="str">
         <v>3</v>
       </c>
@@ -517,117 +542,141 @@
         <v>3</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G5" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H5" t="str">
         <v>NaN%</v>
       </c>
       <c r="I5" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J5" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K5" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L5" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="B6" t="str">
         <v>cruz azul</v>
       </c>
-      <c r="B6" t="str">
-        <v>3</v>
-      </c>
       <c r="C6" t="str">
         <v>3</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <v>1</v>
       </c>
       <c r="F6" t="str">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
         <v>100.00%</v>
       </c>
-      <c r="G6" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H6" t="str">
         <v>NaN%</v>
       </c>
       <c r="I6" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J6" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K6" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L6" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="B7" t="str">
         <v>Mazatlan Fc</v>
       </c>
-      <c r="B7" t="str">
-        <v>3</v>
-      </c>
       <c r="C7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
         <v>0</v>
       </c>
-      <c r="D7" t="str">
-        <v>1</v>
-      </c>
       <c r="E7" t="str">
         <v>1</v>
       </c>
       <c r="F7" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G7" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H7" t="str">
         <v>NaN%</v>
       </c>
       <c r="I7" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J7" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K7" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L7" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="B8" t="str">
         <v>juarez</v>
       </c>
-      <c r="B8" t="str">
-        <v>3</v>
-      </c>
       <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
         <v>0</v>
       </c>
-      <c r="D8" t="str">
-        <v>1</v>
-      </c>
       <c r="E8" t="str">
         <v>1</v>
       </c>
       <c r="F8" t="str">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G8" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H8" t="str">
         <v>NaN%</v>
       </c>
       <c r="I8" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J8" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K8" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L8" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="B9" t="str">
         <v>america</v>
       </c>
-      <c r="B9" t="str">
-        <v>3</v>
-      </c>
       <c r="C9" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="str">
         <v>1</v>
@@ -636,85 +685,103 @@
         <v>1</v>
       </c>
       <c r="F9" t="str">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G9" t="str">
-        <v>NaN%</v>
-      </c>
       <c r="H9" t="str">
         <v>NaN%</v>
       </c>
       <c r="I9" t="str">
         <v>NaN%</v>
       </c>
+      <c r="J9" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K9" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L9" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="B10" t="str">
         <v>America</v>
       </c>
-      <c r="B10" t="str">
-        <v>3</v>
-      </c>
       <c r="C10" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
         <v>44.44%</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <v>46.67%</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>31.33%</v>
       </c>
+      <c r="K10" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L10" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="B11" t="str">
         <v>Juarez</v>
       </c>
-      <c r="B11" t="str">
-        <v>3</v>
-      </c>
       <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
         <v>0</v>
       </c>
-      <c r="D11" t="str">
-        <v>3</v>
-      </c>
       <c r="E11" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>31.33%</v>
       </c>
+      <c r="K11" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L11" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="B12" t="str">
         <v>america</v>
       </c>
-      <c r="B12" t="str">
-        <v>3</v>
-      </c>
       <c r="C12" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="str">
         <v>1</v>
@@ -723,56 +790,68 @@
         <v>1</v>
       </c>
       <c r="F12" t="str">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K12" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L12" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="B13" t="str">
         <v>juarez</v>
       </c>
-      <c r="B13" t="str">
-        <v>3</v>
-      </c>
       <c r="C13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
         <v>0</v>
       </c>
-      <c r="D13" t="str">
-        <v>1</v>
-      </c>
       <c r="E13" t="str">
         <v>1</v>
       </c>
       <c r="F13" t="str">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K13" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L13" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="B14" t="str">
         <v>america</v>
       </c>
-      <c r="B14" t="str">
-        <v>3</v>
-      </c>
       <c r="C14" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <v>1</v>
@@ -781,56 +860,68 @@
         <v>1</v>
       </c>
       <c r="F14" t="str">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K14" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L14" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="B15" t="str">
         <v>juarez</v>
       </c>
-      <c r="B15" t="str">
-        <v>3</v>
-      </c>
       <c r="C15" t="str">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
         <v>0</v>
       </c>
-      <c r="D15" t="str">
-        <v>1</v>
-      </c>
       <c r="E15" t="str">
         <v>1</v>
       </c>
       <c r="F15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K15" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L15" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="B16" t="str">
         <v>america</v>
       </c>
-      <c r="B16" t="str">
-        <v>3</v>
-      </c>
       <c r="C16" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
         <v>1</v>
@@ -839,56 +930,68 @@
         <v>1</v>
       </c>
       <c r="F16" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K16" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L16" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="B17" t="str">
         <v>santos</v>
       </c>
-      <c r="B17" t="str">
-        <v>3</v>
-      </c>
       <c r="C17" t="str">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
         <v>0</v>
       </c>
-      <c r="D17" t="str">
-        <v>1</v>
-      </c>
       <c r="E17" t="str">
         <v>1</v>
       </c>
       <c r="F17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K17" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L17" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="B18" t="str">
         <v>america</v>
       </c>
-      <c r="B18" t="str">
-        <v>3</v>
-      </c>
       <c r="C18" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="str">
         <v>1</v>
@@ -897,114 +1000,138 @@
         <v>1</v>
       </c>
       <c r="F18" t="str">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K18" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L18" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="B19" t="str">
         <v>santos</v>
       </c>
-      <c r="B19" t="str">
-        <v>3</v>
-      </c>
       <c r="C19" t="str">
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
         <v>0</v>
       </c>
-      <c r="D19" t="str">
-        <v>1</v>
-      </c>
       <c r="E19" t="str">
         <v>1</v>
       </c>
       <c r="F19" t="str">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K19" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L19" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="B20" t="str">
         <v>Cruz azul</v>
       </c>
-      <c r="B20" t="str">
-        <v>3</v>
-      </c>
       <c r="C20" t="str">
         <v>3</v>
       </c>
       <c r="D20" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="str">
         <v>1</v>
       </c>
       <c r="F20" t="str">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
         <v>100.00%</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <v>80.00%</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>48.00%</v>
       </c>
+      <c r="K20" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L20" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="B21" t="str">
         <v>Mazatlan Fc</v>
       </c>
-      <c r="B21" t="str">
-        <v>3</v>
-      </c>
       <c r="C21" t="str">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
         <v>0</v>
       </c>
-      <c r="D21" t="str">
-        <v>1</v>
-      </c>
       <c r="E21" t="str">
         <v>1</v>
       </c>
       <c r="F21" t="str">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>48.00%</v>
       </c>
+      <c r="K21" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L21" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="B22" t="str">
         <v>america</v>
       </c>
-      <c r="B22" t="str">
-        <v>3</v>
-      </c>
       <c r="C22" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="str">
         <v>1</v>
@@ -1013,56 +1140,68 @@
         <v>1</v>
       </c>
       <c r="F22" t="str">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K22" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L22" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="B23" t="str">
         <v>juarez</v>
       </c>
-      <c r="B23" t="str">
-        <v>3</v>
-      </c>
       <c r="C23" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
         <v>0</v>
       </c>
-      <c r="D23" t="str">
-        <v>1</v>
-      </c>
       <c r="E23" t="str">
         <v>1</v>
       </c>
       <c r="F23" t="str">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K23" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L23" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="B24" t="str">
         <v>america</v>
       </c>
-      <c r="B24" t="str">
-        <v>3</v>
-      </c>
       <c r="C24" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="str">
         <v>1</v>
@@ -1071,65 +1210,77 @@
         <v>1</v>
       </c>
       <c r="F24" t="str">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
         <v>33.33%</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <v>50.00%</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <v>40.00%</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K24" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L24" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="B25" t="str">
         <v>juarez</v>
       </c>
-      <c r="B25" t="str">
-        <v>3</v>
-      </c>
       <c r="C25" t="str">
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
         <v>0</v>
       </c>
-      <c r="D25" t="str">
-        <v>1</v>
-      </c>
       <c r="E25" t="str">
         <v>1</v>
       </c>
       <c r="F25" t="str">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
         <v>0.00%</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <v>40.00%</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <v>16.00%</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>28.00%</v>
       </c>
+      <c r="K25" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L25" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="B26" t="str">
         <v>pumas unam</v>
       </c>
-      <c r="B26" t="str">
-        <v>3</v>
-      </c>
       <c r="C26" t="str">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
         <v>2</v>
       </c>
-      <c r="D26" t="str">
-        <v>1</v>
-      </c>
       <c r="E26" t="str">
         <v>1</v>
       </c>
       <c r="F26" t="str">
-        <v>66.67%</v>
+        <v>1</v>
       </c>
       <c r="G26" t="str">
         <v>66.67%</v>
@@ -1138,18 +1289,24 @@
         <v>66.67%</v>
       </c>
       <c r="I26" t="str">
+        <v>66.67%</v>
+      </c>
+      <c r="J26" t="str">
         <v>50.00%</v>
       </c>
+      <c r="K26" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L26" t="str">
+        <v>NaN%</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="B27" t="str">
         <v>pachuca</v>
       </c>
-      <c r="B27" t="str">
-        <v>3</v>
-      </c>
       <c r="C27" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="str">
         <v>1</v>
@@ -1158,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="str">
-        <v>33.33%</v>
+        <v>1</v>
       </c>
       <c r="G27" t="str">
         <v>33.33%</v>
@@ -1167,12 +1324,1131 @@
         <v>33.33%</v>
       </c>
       <c r="I27" t="str">
+        <v>33.33%</v>
+      </c>
+      <c r="J27" t="str">
         <v>50.00%</v>
+      </c>
+      <c r="K27" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L27" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="str">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H28" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I28" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J28" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K28" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L28" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H29" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I29" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J29" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K29" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L29" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H30" t="str">
+        <v>25.93%</v>
+      </c>
+      <c r="I30" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J30" t="str">
+        <v>20.93%</v>
+      </c>
+      <c r="K30" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L30" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H31" t="str">
+        <v>15.93%</v>
+      </c>
+      <c r="I31" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J31" t="str">
+        <v>20.93%</v>
+      </c>
+      <c r="K31" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L31" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H32" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I32" t="str">
+        <v>602.96%</v>
+      </c>
+      <c r="J32" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K32" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L32" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H33" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I33" t="str">
+        <v>598.96%</v>
+      </c>
+      <c r="J33" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K33" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L33" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H34" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I34" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J34" t="str">
+        <v>4300.00%</v>
+      </c>
+      <c r="K34" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L34" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H35" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I35" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J35" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K35" t="str">
+        <v>3456.00%</v>
+      </c>
+      <c r="L35" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H36" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I36" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J36" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K36" t="str">
+        <v>4096.00%</v>
+      </c>
+      <c r="L36" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H37" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I37" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J37" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K37" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L37" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H38" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I38" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J38" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K38" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L38" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="str">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H39" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I39" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J39" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K39" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L39" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="str">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H40" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I40" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J40" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K40" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L40" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="str">
+        <v>4</v>
+      </c>
+      <c r="G41" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H41" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I41" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J41" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K41" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L41" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="str">
+        <v>4</v>
+      </c>
+      <c r="G42" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H42" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I42" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J42" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K42" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L42" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H43" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I43" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J43" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K43" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L43" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H44" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I44" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J44" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K44" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L44" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H45" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I45" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J45" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K45" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L45" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H46" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I46" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J46" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K46" t="str">
+        <v>-6666.67%</v>
+      </c>
+      <c r="L46" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H47" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I47" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J47" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K47" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L47" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H48" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I48" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J48" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K48" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L48" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H49" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I49" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J49" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K49" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L49" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H50" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I50" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J50" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K50" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L50" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H51" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I51" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J51" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K51" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L51" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2024-07-22T23:16:43.183Z</v>
+      </c>
+      <c r="B52" t="str">
+        <v>uno</v>
+      </c>
+      <c r="G52" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H52" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I52" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J52" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K52" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L52" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2024-07-22T23:16:43.183Z</v>
+      </c>
+      <c r="B53" t="str">
+        <v>dos</v>
+      </c>
+      <c r="G53" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H53" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I53" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J53" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K53" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L53" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="str">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H54" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I54" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J54" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K54" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L54" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="str">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H55" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I55" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J55" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K55" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L55" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2024-07-22T23:31:09.023Z</v>
+      </c>
+      <c r="B56" t="str">
+        <v xml:space="preserve">huesos </v>
+      </c>
+      <c r="G56" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H56" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I56" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J56" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K56" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L56" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2024-07-22T23:31:09.023Z</v>
+      </c>
+      <c r="B57" t="str">
+        <v>bmo</v>
+      </c>
+      <c r="G57" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H57" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I57" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J57" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K57" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L57" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H58" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I58" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J58" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K58" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L58" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H59" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I59" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J59" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K59" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L59" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H60" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I60" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J60" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K60" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L60" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="G61" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H61" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I61" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J61" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K61" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L61" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45498.97961956019</v>
+      </c>
+      <c r="B62" t="str">
+        <v>santos laguna</v>
+      </c>
+      <c r="G62" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H62" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I62" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J62" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K62" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L62" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45498.97961956019</v>
+      </c>
+      <c r="B63" t="str">
+        <v>pedrones 2</v>
+      </c>
+      <c r="G63" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H63" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I63" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J63" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K63" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L63" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H64" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I64" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J64" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K64" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L64" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H65" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I65" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J65" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K65" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L65" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H66" t="str">
+        <v>45.00%</v>
+      </c>
+      <c r="I66" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J66" t="str">
+        <v>50.00%</v>
+      </c>
+      <c r="K66" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L66" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H67" t="str">
+        <v>55.00%</v>
+      </c>
+      <c r="I67" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J67" t="str">
+        <v>50.00%</v>
+      </c>
+      <c r="K67" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L67" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>45498.98039640046</v>
+      </c>
+      <c r="B68" t="str">
+        <v>c</v>
+      </c>
+      <c r="G68" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H68" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I68" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J68" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K68" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L68" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>45498.98039640046</v>
+      </c>
+      <c r="B69" t="str">
+        <v>d</v>
+      </c>
+      <c r="G69" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H69" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I69" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J69" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K69" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L69" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H70" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I70" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J70" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K70" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L70" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H71" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I71" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J71" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K71" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L71" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H72" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I72" t="str">
+        <v>3018.00%</v>
+      </c>
+      <c r="J72" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K72" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L72" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H73" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I73" t="str">
+        <v>142.00%</v>
+      </c>
+      <c r="J73" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K73" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L73" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H74" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I74" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2800.00%</v>
+      </c>
+      <c r="K74" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L74" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H75" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I75" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J75" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K75" t="str">
+        <v>0.00%</v>
+      </c>
+      <c r="L75" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H76" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I76" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J76" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K76" t="str">
+        <v>1666.67%</v>
+      </c>
+      <c r="L76" t="str">
+        <v>NaN%</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H77" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I77" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J77" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K77" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L77" t="str">
+        <v>3414.03%</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="H78" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="I78" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="J78" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="K78" t="str">
+        <v>NaN%</v>
+      </c>
+      <c r="L78" t="str">
+        <v>3418.55%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -443,42 +443,45 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45499.66148540509</v>
+        <v>45499.675166099536</v>
       </c>
       <c r="B2" t="str">
-        <v>isd</v>
+        <v>atlanta braves</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.33333333333333</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>0.36</v>
+        <v>0.5421818181818182</v>
+      </c>
+      <c r="K2">
+        <v>8.51063829787234</v>
       </c>
       <c r="L2">
-        <v>26.874023251381736</v>
+        <v>3.451931103924922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45499.66148540509</v>
+        <v>45499.675166099536</v>
       </c>
       <c r="B3" t="str">
-        <v>sdasda</v>
+        <v>mets</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.66666666666667</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>0.4455555555555556</v>
+        <v>0.4270909090909091</v>
       </c>
       <c r="L3">
-        <v>33.590157338585016</v>
+        <v>3.3835593431939115</v>
       </c>
     </row>
   </sheetData>
